--- a/Reports/PPM/ppm.xlsx
+++ b/Reports/PPM/ppm.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ubuntu\Clinical_Project\Reports\PPM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27082537-A1EE-4CF5-9952-ED67D85DCFF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>EquipmentSN</t>
   </si>
@@ -40,32 +46,149 @@
     <t>ppmError</t>
   </si>
   <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E2121</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
     <t>E26</t>
   </si>
   <si>
+    <t>E2626</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>Beds</t>
+  </si>
+  <si>
+    <t>Monitors</t>
+  </si>
+  <si>
+    <t>Ventiltors</t>
+  </si>
+  <si>
+    <t>Endotracheal Tube</t>
+  </si>
+  <si>
+    <t>Intravenous Infusion Pump</t>
+  </si>
+  <si>
     <t>Syringe Pump</t>
   </si>
   <si>
+    <t>Nasogastric Tubes</t>
+  </si>
+  <si>
+    <t>Indwelling Urinary Catheter</t>
+  </si>
+  <si>
+    <t>Pulse Oximeter</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
     <t>0013</t>
   </si>
   <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
     <t>ICU</t>
   </si>
   <si>
+    <t>Marwa</t>
+  </si>
+  <si>
+    <t>Nagham</t>
+  </si>
+  <si>
+    <t>Menna</t>
+  </si>
+  <si>
+    <t>Ismael</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>Mahdy</t>
+  </si>
+  <si>
     <t>Tamer</t>
   </si>
   <si>
+    <t>Galal</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Salma</t>
+  </si>
+  <si>
+    <t>Hesham</t>
+  </si>
+  <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Tube Error</t>
+  </si>
+  <si>
+    <t>Leakage</t>
+  </si>
+  <si>
+    <t>Sensor Failure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +252,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -175,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,9 +338,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,6 +390,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,14 +583,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -457,25 +636,315 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
-        <v>43984.14583333334</v>
+        <v>43961.0625</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43961.104166666657</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43962.104166666657</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43993.104166666657</v>
+      </c>
+      <c r="H5">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43969.229166666657</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43971.520833333343</v>
+      </c>
+      <c r="H7">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="2">
+        <v>43984.145833333343</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43959.520833333343</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43990.520833333343</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="2">
+        <v>43983.4375</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2">
+        <v>43963.479166666657</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/PPM/ppm.xlsx
+++ b/Reports/PPM/ppm.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Ubuntu\Clinical_Project\Reports\PPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clinical_Project\Reports\PPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27082537-A1EE-4CF5-9952-ED67D85DCFF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -339,23 +338,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -391,23 +373,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -583,11 +548,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
